--- a/SHEIB/Docs/管理文档/发生费用.xlsx
+++ b/SHEIB/Docs/管理文档/发生费用.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>出租车费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>项目组餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江宁路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签订合同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +431,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -457,7 +469,24 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3">
+        <v>39889</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
@@ -481,7 +510,7 @@
     <row r="21" spans="4:4">
       <c r="D21" s="1">
         <f>SUM(D2:D20)</f>
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/SHEIB/Docs/管理文档/发生费用.xlsx
+++ b/SHEIB/Docs/管理文档/发生费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>出租车费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,18 @@
   <si>
     <t>签订合同</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+  </si>
+  <si>
+    <t>一期发票快递接收和转发</t>
+  </si>
+  <si>
+    <t>明成</t>
+  </si>
+  <si>
+    <t>22+5</t>
   </si>
 </sst>
 </file>
@@ -70,14 +82,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -85,7 +97,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -93,7 +105,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +148,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -144,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,15 +443,16 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -507,10 +520,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3">
+        <v>39925</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="21" spans="4:4">
       <c r="D21" s="1">
         <f>SUM(D2:D20)</f>
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -540,7 +575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/管理文档/发生费用.xlsx
+++ b/SHEIB/Docs/管理文档/发生费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>出租车费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨成春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饭费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨成春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目组餐费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大连路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +56,34 @@
   </si>
   <si>
     <t>22+5</t>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海澜歌餐饮有限公司向天歌烧鹅老铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海澜歌餐饮有限公司向天歌烧鹅老铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -82,14 +94,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -97,7 +109,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,7 +117,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -133,7 +145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,9 +158,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -440,19 +455,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -478,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -486,24 +501,37 @@
         <v>39889</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="1">
+        <v>550</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -511,41 +539,69 @@
         <v>39907</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>166</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>39945</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <v>120</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>39956</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>167</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
         <v>39925</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1">
         <v>27</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1">
-        <f>SUM(D2:D20)</f>
-        <v>252</v>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="1">
+        <f>SUM(D2:D21)</f>
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,7 +631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SHEIB/Docs/管理文档/发生费用.xlsx
+++ b/SHEIB/Docs/管理文档/发生费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>出租车费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商谈合同事宜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大连路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,37 +48,46 @@
     <t>一期发票快递接收和转发</t>
   </si>
   <si>
+    <t>22+5</t>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海澜歌餐饮有限公司向天歌烧鹅老铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海澜歌餐饮有限公司向天歌烧鹅老铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴江路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千锅局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商谈合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>明成</t>
-  </si>
-  <si>
-    <t>22+5</t>
-  </si>
-  <si>
-    <t>杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海澜歌餐饮有限公司向天歌烧鹅老铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海澜歌餐饮有限公司向天歌烧鹅老铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴江路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,20 +460,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="19.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="5.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -490,10 +496,10 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,107 +507,121 @@
         <v>39889</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="1">
+        <v>550</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3">
+        <v>39907</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" s="1">
-        <v>550</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
+      <c r="D10" s="1">
+        <v>166</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" s="4">
+        <v>39945</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3">
-        <v>39907</v>
+      <c r="A12" s="4">
+        <v>39956</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>39945</v>
+        <v>40004</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <v>39956</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1">
-        <v>167</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3">
+        <v>39925</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3">
-        <v>39925</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="D16" s="1">
         <v>27</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22" s="1">
-        <f>SUM(D2:D21)</f>
-        <v>1089</v>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1">
+        <f>SUM(D2:D20)</f>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>

--- a/SHEIB/Docs/管理文档/发生费用.xlsx
+++ b/SHEIB/Docs/管理文档/发生费用.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>出租车费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明成</t>
+    <t>第一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二期快递接收及转发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付给钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,14 +140,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -150,17 +166,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -460,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -503,7 +513,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>39889</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -528,6 +538,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="D7" s="1">
         <v>550</v>
       </c>
@@ -535,93 +548,129 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>400</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1">
+        <v>300</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>39907</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D14" s="1">
         <v>166</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>39945</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D15" s="1">
         <v>120</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>39956</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D16" s="1">
         <v>167</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>40004</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D17" s="1">
         <v>184</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>39925</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D20" s="1">
         <v>27</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="1">
-        <f>SUM(D2:D20)</f>
-        <v>1273</v>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="D25" s="1">
+        <f>SUM(D2:D24)</f>
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
